--- a/testcases_and_execution/BSW_FM_Test_Cases_with_result.xlsx
+++ b/testcases_and_execution/BSW_FM_Test_Cases_with_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rajesh\Desktop\githubbbbbb\BSW_project 2\02_Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DA530-E506-4BD5-8F7B-DC374672869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B7D6A-4A6A-4B31-8C67-1CBBFCD22EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="615" windowWidth="20385" windowHeight="10905" xr2:uid="{F49E7940-F712-41A6-9D99-FD63A8F546CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F49E7940-F712-41A6-9D99-FD63A8F546CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Req_ID</t>
   </si>
@@ -54,68 +54,23 @@
     <t>Test Status</t>
   </si>
   <si>
-    <t>R-1235</t>
-  </si>
-  <si>
-    <t>TC_FM_1235_01</t>
-  </si>
-  <si>
-    <t>ECU powered ON, NVM accessible</t>
-  </si>
-  <si>
-    <t>Trigger different DTC events (low voltage, high voltage, missing msg, etc.)</t>
-  </si>
-  <si>
-    <t>All DTC events should be logged into NVM</t>
-  </si>
-  <si>
-    <t>DTC log stored</t>
-  </si>
-  <si>
-    <t>No findings</t>
-  </si>
-  <si>
     <t>–</t>
   </si>
   <si>
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>R-1523</t>
-  </si>
-  <si>
-    <t>TC_FM_1523_01</t>
-  </si>
-  <si>
-    <t>Supply voltage adjustable via HIL bench</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set supply voltage to 8.2V → wait 5s → send </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>19 06 10 20 30 01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> request</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DTC (0x102030, LOW-COL-DTC) should be </t>
+    <t>R-1527</t>
+  </si>
+  <si>
+    <t>TC_FM_1527_01</t>
+  </si>
+  <si>
+    <t>Normal communication established</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DTC (0x087067) should become </t>
     </r>
     <r>
       <rPr>
@@ -128,32 +83,6 @@
       </rPr>
       <t>active</t>
     </r>
-  </si>
-  <si>
-    <t>DTC logged to NVM</t>
-  </si>
-  <si>
-    <t>R-1524</t>
-  </si>
-  <si>
-    <t>TC_FM_1524_01</t>
-  </si>
-  <si>
-    <t>Low voltage DTC previously active</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Increase voltage to 8.8V → send </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>19 06 10 20 30 01</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -162,12 +91,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> request</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DTC should change to </t>
+      <t xml:space="preserve"> (failed status)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fault logged</t>
+  </si>
+  <si>
+    <t>R-1528</t>
+  </si>
+  <si>
+    <t>TC_FM_1528_01</t>
+  </si>
+  <si>
+    <t>DTC active due to missing msg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DTC (0x87067) should change to </t>
     </r>
     <r>
       <rPr>
@@ -188,21 +129,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> immediately</t>
-    </r>
-  </si>
-  <si>
-    <t>DTC state updated</t>
-  </si>
-  <si>
-    <t>R-1525</t>
-  </si>
-  <si>
-    <t>TC_FM_1525_01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set supply voltage to 12.6V → wait 5s → send </t>
+      <t xml:space="preserve"> (recovered)</t>
+    </r>
+  </si>
+  <si>
+    <t>DTC status updated</t>
+  </si>
+  <si>
+    <t>R-1258</t>
+  </si>
+  <si>
+    <t>TC_FM_1258_01</t>
+  </si>
+  <si>
+    <t>Blindness DTC enabled in system</t>
+  </si>
+  <si>
+    <t>Trigger blindness DTC multiple times, check A2L counter values</t>
+  </si>
+  <si>
+    <t>Counter should increment by 1 each time; removal only possible after NVM flash</t>
+  </si>
+  <si>
+    <t>Counter stored in NVM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miss message </t>
     </r>
     <r>
       <rPr>
@@ -211,37 +164,17 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>19 06 10 20 30 01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DTC (0x108066, HIGH_VOL_DTC) should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>0x413</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>active</t>
-    </r>
-  </si>
-  <si>
-    <t>R-1526</t>
-  </si>
-  <si>
-    <t>TC_FM_1526_01</t>
-  </si>
-  <si>
-    <t>High voltage DTC previously active</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Set voltage to 12.3V → send </t>
+      <t xml:space="preserve"> → send </t>
     </r>
     <r>
       <rPr>
@@ -250,21 +183,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>19 06 10 20 30 01</t>
-    </r>
-  </si>
-  <si>
-    <t>R-1527</t>
-  </si>
-  <si>
-    <t>TC_FM_1527_01</t>
-  </si>
-  <si>
-    <t>Normal communication established</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Miss message </t>
+      <t>19 02 09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restore message </t>
     </r>
     <r>
       <rPr>
@@ -273,7 +197,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>0x417</t>
+      <t>0x413</t>
     </r>
     <r>
       <rPr>
@@ -292,126 +216,8 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>19 06 08 70 67 01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DTC (0x087067) should become </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>active</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (failed status)</t>
-    </r>
-  </si>
-  <si>
-    <t>Fault logged</t>
-  </si>
-  <si>
-    <t>R-1528</t>
-  </si>
-  <si>
-    <t>TC_FM_1528_01</t>
-  </si>
-  <si>
-    <t>DTC active due to missing msg</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restore message </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x417</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> → send </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>19 06 08 70 67 01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">DTC (0x87067) should change to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>passive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (recovered)</t>
-    </r>
-  </si>
-  <si>
-    <t>DTC status updated</t>
-  </si>
-  <si>
-    <t>R-1258</t>
-  </si>
-  <si>
-    <t>TC_FM_1258_01</t>
-  </si>
-  <si>
-    <t>Blindness DTC enabled in system</t>
-  </si>
-  <si>
-    <t>Trigger blindness DTC multiple times, check A2L counter values</t>
-  </si>
-  <si>
-    <t>Counter should increment by 1 each time; removal only possible after NVM flash</t>
-  </si>
-  <si>
-    <t>Counter stored in NVM</t>
+      <t>19 02 09</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -783,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD8602C-49A6-4A32-ADC5-1B23C2542C09}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,236 +634,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="151.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="135.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
